--- a/jpcore-r4/feature/Observationリソースカテゴリ変更/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/Observationリソースカテゴリ変更/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -513,14 +513,6 @@
     <t>階層的にカテゴリーを設定することで粒度のレベルを概念定義できる。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_SimpleObservationCategory_CS"/&gt;
-    &lt;code value="exam"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Observation.category:physicalExam.id</t>
   </si>
   <si>
@@ -672,6 +664,9 @@
   </si>
   <si>
     <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>exam</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -3731,7 +3726,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>41</v>
@@ -3806,10 +3801,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3832,13 +3827,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3889,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3913,7 +3908,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -3924,10 +3919,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3956,7 +3951,7 @@
         <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>101</v>
@@ -3997,10 +3992,10 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>41</v>
@@ -4009,7 +4004,7 @@
         <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4033,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4044,10 +4039,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4070,19 +4065,19 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4131,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4152,10 +4147,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4166,10 +4161,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4192,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4249,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4273,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4284,10 +4279,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4316,7 +4311,7 @@
         <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>101</v>
@@ -4357,10 +4352,10 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>41</v>
@@ -4369,7 +4364,7 @@
         <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4393,7 +4388,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4404,10 +4399,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4433,65 +4428,65 @@
         <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4512,10 +4507,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4526,10 +4521,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4552,16 +4547,16 @@
         <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4611,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4632,10 +4627,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4646,10 +4641,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4675,21 +4670,21 @@
         <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4792,7 +4787,7 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>214</v>
@@ -5034,7 +5029,7 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>232</v>
@@ -5276,13 +5271,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5333,7 +5328,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5357,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5400,7 +5395,7 @@
         <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>101</v>
@@ -5441,10 +5436,10 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>41</v>
@@ -5453,7 +5448,7 @@
         <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5477,7 +5472,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5514,19 +5509,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5573,7 +5568,7 @@
         <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5594,10 +5589,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5636,7 +5631,7 @@
         <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>257</v>
@@ -5648,7 +5643,7 @@
         <v>259</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5695,7 +5690,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5716,10 +5711,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5756,13 +5751,13 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5813,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5837,7 +5832,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5880,7 +5875,7 @@
         <v>99</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>101</v>
@@ -5921,10 +5916,10 @@
         <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>41</v>
@@ -5933,7 +5928,7 @@
         <v>152</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5957,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5997,16 +5992,16 @@
         <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6055,7 +6050,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6076,10 +6071,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6116,16 +6111,16 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6175,7 +6170,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6196,10 +6191,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6239,14 +6234,14 @@
         <v>72</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6356,7 +6351,7 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>214</v>
@@ -6598,7 +6593,7 @@
         <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>232</v>
@@ -8656,13 +8651,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8713,7 +8708,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8737,7 +8732,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8780,7 +8775,7 @@
         <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>101</v>
@@ -8833,7 +8828,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8857,7 +8852,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9616,7 +9611,7 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>451</v>
@@ -10096,13 +10091,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10153,7 +10148,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10177,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10220,7 +10215,7 @@
         <v>99</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>101</v>
@@ -10273,7 +10268,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10297,7 +10292,7 @@
         <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10576,13 +10571,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10633,7 +10628,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10657,7 +10652,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10700,7 +10695,7 @@
         <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>101</v>
@@ -10741,10 +10736,10 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC73" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>41</v>
@@ -10753,7 +10748,7 @@
         <v>152</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10777,7 +10772,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10814,19 +10809,19 @@
         <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10873,7 +10868,7 @@
         <v>152</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10894,10 +10889,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10936,7 +10931,7 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>257</v>
@@ -10948,7 +10943,7 @@
         <v>259</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10995,7 +10990,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11016,10 +11011,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11056,13 +11051,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11113,7 +11108,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11137,7 +11132,7 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11180,7 +11175,7 @@
         <v>99</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>101</v>
@@ -11221,10 +11216,10 @@
         <v>41</v>
       </c>
       <c r="AB77" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC77" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>41</v>
@@ -11233,7 +11228,7 @@
         <v>152</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11257,7 +11252,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11297,16 +11292,16 @@
         <v>66</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11355,7 +11350,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11376,10 +11371,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11416,16 +11411,16 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11475,7 +11470,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11496,10 +11491,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11539,14 +11534,14 @@
         <v>72</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11656,7 +11651,7 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>214</v>
@@ -11898,7 +11893,7 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>232</v>
